--- a/tamil_biology/001_NEET_Questions.xlsx
+++ b/tamil_biology/001_NEET_Questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f0fc4bf5891d94d/2020/SathyamoorthySir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\tvmani.github.io\tamil_biology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{F88BA153-DBF6-4432-8A51-96100F12768C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{977E7F5B-3970-48F0-AAA4-26316D34D95D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456076D-72D2-4DD1-9531-8E69CB8099EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10B15D36-62A2-42E1-96B8-002C7E680664}"/>
   </bookViews>
@@ -512,23 +512,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEBE3C3-D3AB-45CC-A447-DC1A39997F74}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
